--- a/test_delete.xlsx
+++ b/test_delete.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,13 +40,7 @@
     <t xml:space="preserve">Valcir</t>
   </si>
   <si>
-    <t xml:space="preserve">Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agnes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marina</t>
+    <t xml:space="preserve">Lara</t>
   </si>
 </sst>
 </file>
@@ -121,13 +115,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -147,260 +145,132 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="4" style="1" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
+      <c r="C2" s="2" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
+      <c r="C3" s="2" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>3</v>
+      <c r="C4" s="2" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>4</v>
+      <c r="C5" s="2" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
